--- a/data/sector_correlations/2017_intra.xlsx
+++ b/data/sector_correlations/2017_intra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,281 +448,301 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Multi-Utilities(19)</t>
+          <t>Multi-Utilities(18)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4045419562986081</v>
+        <v>0.4701696426296317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Energy Equipment &amp; Services(34)</t>
+          <t>Energy Equipment &amp; Services(32)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3673590472571844</v>
+        <v>0.406557305300907</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Road &amp; Rail(23)</t>
+          <t>Road &amp; Rail(22)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3158630558153689</v>
+        <v>0.3673881964468256</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Auto Components(21)</t>
+          <t>Banks(246)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2938848054147093</v>
+        <v>0.3368748846693499</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Electric Utilities(29)</t>
+          <t>Electric Utilities(28)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2864663178977088</v>
+        <v>0.3205586396304085</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Banks(271)</t>
+          <t>Marine(15)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2693835896023916</v>
+        <v>0.3070128247586821</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Machinery(93)</t>
+          <t>Building Products(23)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2244011020242132</v>
+        <v>0.302143338175924</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Building Products(27)</t>
+          <t>Auto Components(21)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1987127832097859</v>
+        <v>0.2938848054147093</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Specialty Retail(63)</t>
+          <t>Machinery(85)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1929542491478677</v>
+        <v>0.2664101813557964</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Textiles, Apparel &amp; Luxury Goods(30)</t>
+          <t>Construction &amp; Engineering(20)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1923818984929801</v>
+        <v>0.2616263087945421</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Trading Companies &amp; Distributors(28)</t>
+          <t>Trading Companies &amp; Distributors(25)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1906905812777885</v>
+        <v>0.2552831537526278</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hotels, Restaurants &amp; Leisure(54)</t>
+          <t>Specialty Retail(58)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1793064518393016</v>
+        <v>0.2498051986964366</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Thrifts &amp; Mortgage Finance(52)</t>
+          <t>Thrifts &amp; Mortgage Finance(47)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1769734505526259</v>
+        <v>0.2357986428000619</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels(128)</t>
+          <t>Textiles, Apparel &amp; Luxury Goods(29)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1684405416955802</v>
+        <v>0.2332191071178296</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Insurance(80)</t>
+          <t>Capital Markets(75)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1521584858424808</v>
+        <v>0.1909815052457282</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Capital Markets(87)</t>
+          <t>Hotels, Restaurants &amp; Leisure(50)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1433532083033167</v>
+        <v>0.1870392878746558</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Semiconductors &amp; Semiconductor Equipment(75)</t>
+          <t>Insurance(75)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1427453957569975</v>
+        <v>0.1840892825553289</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Professional Services(38)</t>
+          <t>Oil, Gas &amp; Consumable Fuels(122)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1414533240204772</v>
+        <v>0.1837975971606767</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IT Services(58)</t>
+          <t>Semiconductors &amp; Semiconductor Equipment(68)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1350460225398921</v>
+        <v>0.1803422401853819</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chemicals(55)</t>
+          <t>Professional Services(35)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1314332189475697</v>
+        <v>0.1672019193938927</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining(95)</t>
+          <t>IT Services(52)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.130566061379675</v>
+        <v>0.1491692899065586</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Household Durables(43)</t>
+          <t>Chemicals(51)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1105104563969987</v>
+        <v>0.1458712031784943</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Commercial Services &amp; Supplies(57)</t>
+          <t>Metals &amp; Mining(89)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1058509272928979</v>
+        <v>0.1440840363727988</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense(43)</t>
+          <t>Household Durables(39)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1051231108487344</v>
+        <v>0.1340439084648633</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Health Care Equipment &amp; Supplies(87)</t>
+          <t>Aerospace &amp; Defense(37)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1026430190702177</v>
+        <v>0.1328854393022718</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Health Care Providers &amp; Services(48)</t>
+          <t>Health Care Equipment &amp; Supplies(83)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.09234854248516362</v>
+        <v>0.1205744696534682</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Software(70)</t>
+          <t>Health Care Providers &amp; Services(46)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.07440658349312897</v>
+        <v>0.1164692854126994</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biotechnology(163)</t>
+          <t>Commercial Services &amp; Supplies(52)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.04339495129967246</v>
+        <v>0.1076821198739539</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Software(66)</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.08182842459818392</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Biotechnology(126)</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.07576123345670216</v>
       </c>
     </row>
   </sheetData>

--- a/data/sector_correlations/2017_intra.xlsx
+++ b/data/sector_correlations/2017_intra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,100 +648,110 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>IT Services(52)</t>
+          <t>No Sector(375)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1491692899065586</v>
+        <v>0.1510038066560356</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chemicals(51)</t>
+          <t>IT Services(52)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1458712031784943</v>
+        <v>0.1491692899065586</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining(89)</t>
+          <t>Chemicals(51)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1440840363727988</v>
+        <v>0.1458712031784943</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Household Durables(39)</t>
+          <t>Metals &amp; Mining(89)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1340439084648633</v>
+        <v>0.1440840363727988</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense(37)</t>
+          <t>Household Durables(39)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1328854393022718</v>
+        <v>0.1340439084648633</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Health Care Equipment &amp; Supplies(83)</t>
+          <t>Aerospace &amp; Defense(37)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1205744696534682</v>
+        <v>0.1328854393022718</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Health Care Providers &amp; Services(46)</t>
+          <t>Health Care Equipment &amp; Supplies(83)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1164692854126994</v>
+        <v>0.1205744696534682</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Commercial Services &amp; Supplies(52)</t>
+          <t>Health Care Providers &amp; Services(46)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1076821198739539</v>
+        <v>0.1164692854126994</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Software(66)</t>
+          <t>Commercial Services &amp; Supplies(52)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.08182842459818392</v>
+        <v>0.1076821198739539</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Software(66)</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.08182842459818392</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>Biotechnology(126)</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B32" t="n">
         <v>0.07576123345670216</v>
       </c>
     </row>

--- a/data/sector_correlations/2017_intra.xlsx
+++ b/data/sector_correlations/2017_intra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,11 +458,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Energy Equipment &amp; Services(32)</t>
+          <t>Mortgage Real Estate Investment Trust...(16)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.406557305300907</v>
+        <v>0.3724335807701659</v>
       </c>
     </row>
     <row r="4">
@@ -478,11 +478,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Banks(246)</t>
+          <t>Banks(251)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3368748846693499</v>
+        <v>0.3231659054417919</v>
       </c>
     </row>
     <row r="6">
@@ -498,21 +498,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Marine(15)</t>
+          <t>Energy Equipment &amp; Services(38)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3070128247586821</v>
+        <v>0.3194925571961612</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Building Products(23)</t>
+          <t>Marine(15)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.302143338175924</v>
+        <v>0.3070128247586821</v>
       </c>
     </row>
     <row r="9">
@@ -528,231 +528,261 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Machinery(85)</t>
+          <t>Machinery(86)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2664101813557964</v>
+        <v>0.2687891063247951</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Construction &amp; Engineering(20)</t>
+          <t>Trading Companies &amp; Distributors(25)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2616263087945421</v>
+        <v>0.2552831537526278</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Trading Companies &amp; Distributors(25)</t>
+          <t>Building Products(24)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2552831537526278</v>
+        <v>0.2491270427229211</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Specialty Retail(58)</t>
+          <t>Specialty Retail(59)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2498051986964366</v>
+        <v>0.2488123605747006</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Thrifts &amp; Mortgage Finance(47)</t>
+          <t>Construction &amp; Engineering(21)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2357986428000619</v>
+        <v>0.2403076704806952</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Textiles, Apparel &amp; Luxury Goods(29)</t>
+          <t>Thrifts &amp; Mortgage Finance(47)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2332191071178296</v>
+        <v>0.2357986428000619</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Capital Markets(75)</t>
+          <t>Textiles, Apparel &amp; Luxury Goods(29)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1909815052457282</v>
+        <v>0.2332191071178296</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Hotels, Restaurants &amp; Leisure(50)</t>
+          <t>ETF(303)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1870392878746558</v>
+        <v>0.1968915353976214</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Insurance(75)</t>
+          <t>Hotels, Restaurants &amp; Leisure(51)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1840892825553289</v>
+        <v>0.188945120984718</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels(122)</t>
+          <t>Insurance(75)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1837975971606767</v>
+        <v>0.1840892825553289</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Semiconductors &amp; Semiconductor Equipment(68)</t>
+          <t>Capital Markets(76)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1803422401853819</v>
+        <v>0.1814315502615031</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Professional Services(35)</t>
+          <t>Oil, Gas &amp; Consumable Fuels(125)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1672019193938927</v>
+        <v>0.1775263443596889</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>No Sector(375)</t>
+          <t>Semiconductors &amp; Semiconductor Equipment(70)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1510038066560356</v>
+        <v>0.1734238930286855</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IT Services(52)</t>
+          <t>Professional Services(35)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1491692899065586</v>
+        <v>0.1672019193938927</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chemicals(51)</t>
+          <t>IT Services(52)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1458712031784943</v>
+        <v>0.1491692899065586</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining(89)</t>
+          <t>Equity Real Estate Investment Trusts ...(98)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1440840363727988</v>
+        <v>0.1435237620395196</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Household Durables(39)</t>
+          <t>Chemicals(52)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1340439084648633</v>
+        <v>0.1413109453507816</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense(37)</t>
+          <t>Household Durables(39)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1328854393022718</v>
+        <v>0.1340439084648633</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Health Care Equipment &amp; Supplies(83)</t>
+          <t>Aerospace &amp; Defense(37)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1205744696534682</v>
+        <v>0.1328854393022718</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Health Care Providers &amp; Services(46)</t>
+          <t>Health Care Equipment &amp; Supplies(86)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1164692854126994</v>
+        <v>0.1191024602879562</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Commercial Services &amp; Supplies(52)</t>
+          <t>Health Care Providers &amp; Services(47)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1076821198739539</v>
+        <v>0.1143504074864952</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Software(66)</t>
+          <t>Commercial Services &amp; Supplies(52)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.08182842459818392</v>
+        <v>0.1076821198739539</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Biotechnology(126)</t>
+          <t>Metals &amp; Mining(106)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.07576123345670216</v>
+        <v>0.09393745275700958</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Electronic Equipment, Instruments &amp; C...(78)</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.07528335934453786</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Biotechnology(128)</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.07421641189514432</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Software(70)</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.07029839645929875</v>
       </c>
     </row>
   </sheetData>
